--- a/data/Rivers/KukuatNJohnstoneFarmBridge_14ad987cbd.xlsx
+++ b/data/Rivers/KukuatNJohnstoneFarmBridge_14ad987cbd.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -535,7 +535,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -574,7 +574,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -695,7 +695,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -781,7 +781,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -820,7 +820,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -859,7 +859,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -902,7 +902,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -941,7 +941,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4528,7 +4528,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4610,7 +4610,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4731,7 +4731,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4809,7 +4809,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4895,7 +4895,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5804,7 +5804,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -6034,7 +6034,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -6198,7 +6198,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -6358,7 +6358,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6526,7 +6526,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6565,7 +6565,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6600,7 +6600,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6717,7 +6717,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6830,7 +6830,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6869,7 +6869,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6947,7 +6947,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6990,7 +6990,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -7115,7 +7115,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -7197,7 +7197,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -7314,7 +7314,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -7357,7 +7357,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -7482,7 +7482,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -7521,7 +7521,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7560,7 +7560,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7638,7 +7638,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7681,7 +7681,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7724,7 +7724,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7767,7 +7767,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7888,7 +7888,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -8005,7 +8005,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -8212,7 +8212,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -8255,7 +8255,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -8294,7 +8294,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -8458,7 +8458,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -8501,7 +8501,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -8540,7 +8540,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8622,7 +8622,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -8739,7 +8739,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8782,7 +8782,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8825,7 +8825,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8907,7 +8907,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8946,7 +8946,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -8989,7 +8989,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -9028,7 +9028,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -9106,7 +9106,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -9149,7 +9149,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -9192,7 +9192,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -9235,7 +9235,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -9274,7 +9274,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -9313,7 +9313,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -9422,7 +9422,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -9461,7 +9461,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -9500,7 +9500,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -9535,7 +9535,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -9570,7 +9570,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -9652,7 +9652,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -9730,7 +9730,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -9773,7 +9773,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -9816,7 +9816,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -9937,7 +9937,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -9980,7 +9980,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -10019,7 +10019,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -10097,7 +10097,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -10140,7 +10140,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -10226,7 +10226,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -10265,7 +10265,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -10304,7 +10304,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -10358,7 +10358,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -10385,7 +10385,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -10428,7 +10428,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -10467,7 +10467,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -10545,7 +10545,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -10588,7 +10588,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -10631,7 +10631,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -10674,7 +10674,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -10713,7 +10713,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -10834,7 +10834,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -10877,7 +10877,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -10955,7 +10955,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -10998,7 +10998,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -11041,7 +11041,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -11162,7 +11162,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C269" s="2" t="n">
@@ -11244,7 +11244,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -11287,7 +11287,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -11365,7 +11365,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -11408,7 +11408,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C274" s="2" t="n">
@@ -11451,7 +11451,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C275" s="2" t="n">
@@ -11494,7 +11494,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C276" s="2" t="n">
@@ -11533,7 +11533,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C277" s="2" t="n">
@@ -11572,7 +11572,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
@@ -11615,7 +11615,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -11654,7 +11654,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C280" s="2" t="n">
@@ -11697,7 +11697,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C281" s="2" t="n">
@@ -11775,7 +11775,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -11818,7 +11818,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C285" s="2" t="n">
@@ -11904,7 +11904,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C286" s="2" t="n">
@@ -11943,7 +11943,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -11982,7 +11982,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
@@ -12025,7 +12025,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C289" s="2" t="n">
@@ -12064,7 +12064,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
@@ -12107,7 +12107,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
@@ -12185,7 +12185,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C293" s="2" t="n">
@@ -12228,7 +12228,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C294" s="2" t="n">
@@ -12271,7 +12271,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -12314,7 +12314,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C296" s="2" t="n">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">
@@ -12392,7 +12392,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C298" s="2" t="n">
@@ -12435,7 +12435,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C299" s="2" t="n">
@@ -12474,7 +12474,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
@@ -12517,7 +12517,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C301" s="2" t="n">
@@ -12595,7 +12595,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C303" s="2" t="n">
@@ -12638,7 +12638,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C304" s="2" t="n">
@@ -12681,7 +12681,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C305" s="2" t="n">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C306" s="2" t="n">
@@ -12763,7 +12763,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C307" s="2" t="n">
@@ -12802,7 +12802,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C308" s="2" t="n">
@@ -12845,7 +12845,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C309" s="2" t="n">
@@ -12884,7 +12884,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">
@@ -12927,7 +12927,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C311" s="2" t="n">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C313" s="2" t="n">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C314" s="2" t="n">
@@ -13091,7 +13091,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C315" s="2" t="n">
@@ -13134,7 +13134,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C316" s="2" t="n">
@@ -13173,7 +13173,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C317" s="2" t="n">
@@ -13212,7 +13212,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C318" s="2" t="n">
@@ -13255,7 +13255,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C319" s="2" t="n">
@@ -13294,7 +13294,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C320" s="2" t="n">
@@ -13337,7 +13337,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C321" s="2" t="n">
@@ -13415,7 +13415,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
@@ -13458,7 +13458,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C324" s="2" t="n">
@@ -13501,7 +13501,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C325" s="2" t="n">
@@ -13544,7 +13544,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C326" s="2" t="n">
@@ -13583,7 +13583,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C327" s="2" t="n">
@@ -13622,7 +13622,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C328" s="2" t="n">
@@ -13665,7 +13665,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C329" s="2" t="n">
@@ -13704,7 +13704,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C330" s="2" t="n">
@@ -13747,7 +13747,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C331" s="2" t="n">
@@ -13825,7 +13825,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C333" s="2" t="n">
@@ -13868,7 +13868,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C334" s="2" t="n">
@@ -13911,7 +13911,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C335" s="2" t="n">
@@ -13954,7 +13954,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C336" s="2" t="n">
@@ -13993,7 +13993,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C337" s="2" t="n">
@@ -14032,7 +14032,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C338" s="2" t="n">
@@ -14059,7 +14059,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C339" s="2" t="n">
@@ -14086,7 +14086,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C340" s="2" t="n">
@@ -14113,7 +14113,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C341" s="2" t="n">
@@ -14156,7 +14156,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C342" s="2" t="n">
@@ -14195,7 +14195,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C343" s="2" t="n">
@@ -14238,7 +14238,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C344" s="2" t="n">
@@ -14316,7 +14316,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C346" s="2" t="n">
@@ -14359,7 +14359,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C347" s="2" t="n">
@@ -14402,7 +14402,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C348" s="2" t="n">
@@ -14445,7 +14445,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C349" s="2" t="n">
@@ -14484,7 +14484,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C350" s="2" t="n">
@@ -14523,7 +14523,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C351" s="2" t="n">
@@ -14566,7 +14566,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C352" s="2" t="n">
@@ -14605,7 +14605,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C353" s="2" t="n">
@@ -14648,7 +14648,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C354" s="2" t="n">
@@ -14726,7 +14726,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C356" s="2" t="n">
@@ -14769,7 +14769,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C357" s="2" t="n">
@@ -14812,7 +14812,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C358" s="2" t="n">
@@ -14855,7 +14855,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C359" s="2" t="n">
@@ -14894,7 +14894,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C360" s="2" t="n">
@@ -14933,7 +14933,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C361" s="2" t="n">
@@ -14976,7 +14976,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C362" s="2" t="n">
@@ -15015,7 +15015,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C363" s="2" t="n">
@@ -15058,7 +15058,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C364" s="2" t="n">
@@ -15136,7 +15136,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C366" s="2" t="n">
@@ -15179,7 +15179,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C367" s="2" t="n">
@@ -15222,7 +15222,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C368" s="2" t="n">
@@ -15265,7 +15265,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C369" s="2" t="n">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C370" s="2" t="n">
@@ -15343,7 +15343,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C371" s="2" t="n">
@@ -15386,7 +15386,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C372" s="2" t="n">
@@ -15425,7 +15425,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C373" s="2" t="n">
@@ -15468,7 +15468,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C374" s="2" t="n">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C376" s="2" t="n">
@@ -15589,7 +15589,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C377" s="2" t="n">
@@ -15632,7 +15632,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C378" s="2" t="n">
@@ -15675,7 +15675,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C379" s="2" t="n">
@@ -15714,7 +15714,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C380" s="2" t="n">
@@ -15753,7 +15753,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C381" s="2" t="n">
@@ -15796,7 +15796,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C382" s="2" t="n">
@@ -15835,7 +15835,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C383" s="2" t="n">
@@ -15878,7 +15878,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C384" s="2" t="n">
@@ -15956,7 +15956,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C386" s="2" t="n">
@@ -15999,7 +15999,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C387" s="2" t="n">
@@ -16042,7 +16042,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C388" s="2" t="n">
@@ -16085,7 +16085,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C389" s="2" t="n">
@@ -16124,7 +16124,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C390" s="2" t="n">
@@ -16163,7 +16163,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C391" s="2" t="n">
@@ -16206,7 +16206,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C392" s="2" t="n">
@@ -16245,7 +16245,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C393" s="2" t="n">
@@ -16288,7 +16288,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C394" s="2" t="n">
@@ -16366,7 +16366,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C396" s="2" t="n">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C397" s="2" t="n">
@@ -16452,7 +16452,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C398" s="2" t="n">
@@ -16495,7 +16495,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C399" s="2" t="n">
@@ -16534,7 +16534,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C400" s="2" t="n">
@@ -16573,7 +16573,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C401" s="2" t="n">
@@ -16616,7 +16616,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C402" s="2" t="n">
@@ -16655,7 +16655,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C403" s="2" t="n">
@@ -16698,7 +16698,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C404" s="2" t="n">
@@ -16776,7 +16776,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C406" s="2" t="n">
@@ -16819,7 +16819,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C407" s="2" t="n">
@@ -16862,7 +16862,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C408" s="2" t="n">
@@ -16905,7 +16905,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C409" s="2" t="n">
@@ -16944,7 +16944,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C410" s="2" t="n">
@@ -16983,7 +16983,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C411" s="2" t="n">
@@ -17026,7 +17026,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C412" s="2" t="n">
@@ -17065,7 +17065,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C413" s="2" t="n">
@@ -17108,7 +17108,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C414" s="2" t="n">
@@ -17186,7 +17186,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C416" s="2" t="n">
@@ -17229,7 +17229,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C417" s="2" t="n">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C418" s="2" t="n">
@@ -17315,7 +17315,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C419" s="2" t="n">
@@ -17354,7 +17354,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C420" s="2" t="n">
@@ -17393,7 +17393,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C421" s="2" t="n">
@@ -17436,7 +17436,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C422" s="2" t="n">
@@ -17475,7 +17475,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C423" s="2" t="n">
@@ -17514,7 +17514,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C424" s="2" t="n">
@@ -17557,7 +17557,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C425" s="2" t="n">
@@ -17635,7 +17635,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C427" s="2" t="n">
@@ -17678,7 +17678,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C428" s="2" t="n">
@@ -17721,7 +17721,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C429" s="2" t="n">
@@ -17764,7 +17764,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C430" s="2" t="n">
@@ -17803,7 +17803,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C431" s="2" t="n">
@@ -17842,7 +17842,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C432" s="2" t="n">
@@ -17881,7 +17881,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C433" s="2" t="n">
@@ -17924,7 +17924,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C434" s="2" t="n">
@@ -17963,7 +17963,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C435" s="2" t="n">
@@ -18002,7 +18002,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C436" s="2" t="n">
@@ -18045,7 +18045,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C437" s="2" t="n">
@@ -18123,7 +18123,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C439" s="2" t="n">
@@ -18166,7 +18166,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C440" s="2" t="n">
@@ -18209,7 +18209,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C441" s="2" t="n">
@@ -18252,7 +18252,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C442" s="2" t="n">
@@ -18291,7 +18291,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C443" s="2" t="n">
@@ -18330,7 +18330,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C444" s="2" t="n">
@@ -18369,7 +18369,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C445" s="2" t="n">
@@ -18412,7 +18412,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C446" s="2" t="n">
@@ -18451,7 +18451,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C447" s="2" t="n">
@@ -18490,7 +18490,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C448" s="2" t="n">
@@ -18533,7 +18533,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C449" s="2" t="n">
@@ -18611,7 +18611,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C451" s="2" t="n">
@@ -18654,7 +18654,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C452" s="2" t="n">
@@ -18697,7 +18697,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C453" s="2" t="n">
@@ -18740,7 +18740,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C454" s="2" t="n">
@@ -18779,7 +18779,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C455" s="2" t="n">
@@ -18818,7 +18818,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C456" s="2" t="n">
@@ -18857,7 +18857,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C457" s="2" t="n">
@@ -18900,7 +18900,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C458" s="2" t="n">
@@ -18943,7 +18943,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C459" s="2" t="n">
@@ -18982,7 +18982,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C460" s="2" t="n">
@@ -19021,7 +19021,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C461" s="2" t="n">
@@ -19064,7 +19064,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C462" s="2" t="n">
@@ -19142,7 +19142,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C464" s="2" t="n">
@@ -19185,7 +19185,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C465" s="2" t="n">
@@ -19228,7 +19228,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C466" s="2" t="n">
@@ -19271,7 +19271,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C467" s="2" t="n">
@@ -19310,7 +19310,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C468" s="2" t="n">
@@ -19349,7 +19349,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C469" s="2" t="n">
@@ -19388,7 +19388,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C470" s="2" t="n">
@@ -19431,7 +19431,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C471" s="2" t="n">
@@ -19458,7 +19458,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C472" s="2" t="n">
@@ -19485,7 +19485,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C473" s="2" t="n">
@@ -19512,7 +19512,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C474" s="2" t="n">
@@ -19555,7 +19555,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C475" s="2" t="n">
@@ -19594,7 +19594,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C476" s="2" t="n">
@@ -19633,7 +19633,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C477" s="2" t="n">
@@ -19676,7 +19676,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C478" s="2" t="n">
@@ -19754,7 +19754,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C480" s="2" t="n">
@@ -19797,7 +19797,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C481" s="2" t="n">
@@ -19840,7 +19840,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C482" s="2" t="n">
@@ -19883,7 +19883,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C483" s="2" t="n">
@@ -19922,7 +19922,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C484" s="2" t="n">
@@ -19961,7 +19961,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C485" s="2" t="n">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C486" s="2" t="n">
@@ -20043,7 +20043,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C487" s="2" t="n">
@@ -20086,7 +20086,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C488" s="2" t="n">
@@ -20125,7 +20125,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C489" s="2" t="n">
@@ -20168,7 +20168,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C490" s="2" t="n">
@@ -20246,7 +20246,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C492" s="2" t="n">
@@ -20289,7 +20289,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C493" s="2" t="n">
@@ -20332,7 +20332,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C494" s="2" t="n">
@@ -20375,7 +20375,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C495" s="2" t="n">
@@ -20414,7 +20414,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C496" s="2" t="n">
@@ -20453,7 +20453,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C497" s="2" t="n">
@@ -20492,7 +20492,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C498" s="2" t="n">
@@ -20535,7 +20535,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C499" s="2" t="n">
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C500" s="2" t="n">
@@ -20617,7 +20617,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C501" s="2" t="n">
@@ -20660,7 +20660,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C502" s="2" t="n">
@@ -20738,7 +20738,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C504" s="2" t="n">
@@ -20781,7 +20781,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C505" s="2" t="n">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C506" s="2" t="n">
@@ -20867,7 +20867,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C507" s="2" t="n">
@@ -20906,7 +20906,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C508" s="2" t="n">
@@ -20945,7 +20945,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C509" s="2" t="n">
@@ -20984,7 +20984,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C510" s="2" t="n">
@@ -21027,7 +21027,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C511" s="2" t="n">
@@ -21070,7 +21070,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C512" s="2" t="n">
@@ -21109,7 +21109,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C513" s="2" t="n">
@@ -21152,7 +21152,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C514" s="2" t="n">
@@ -21230,7 +21230,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C516" s="2" t="n">
@@ -21273,7 +21273,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C517" s="2" t="n">
@@ -21316,7 +21316,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C518" s="2" t="n">
@@ -21359,7 +21359,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C519" s="2" t="n">
@@ -21398,7 +21398,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C520" s="2" t="n">
@@ -21437,7 +21437,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C521" s="2" t="n">
@@ -21476,7 +21476,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C522" s="2" t="n">
@@ -21519,7 +21519,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C523" s="2" t="n">
@@ -21562,7 +21562,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C524" s="2" t="n">
@@ -21601,7 +21601,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C525" s="2" t="n">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C526" s="2" t="n">
@@ -21683,7 +21683,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C527" s="2" t="n">
@@ -21761,7 +21761,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C529" s="2" t="n">
@@ -21804,7 +21804,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C530" s="2" t="n">
@@ -21847,7 +21847,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C531" s="2" t="n">
@@ -21890,7 +21890,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C532" s="2" t="n">
@@ -21929,7 +21929,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C533" s="2" t="n">
@@ -21968,7 +21968,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C534" s="2" t="n">
@@ -22007,7 +22007,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C535" s="2" t="n">
@@ -22050,7 +22050,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C536" s="2" t="n">
@@ -22093,7 +22093,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C537" s="2" t="n">
@@ -22132,7 +22132,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C538" s="2" t="n">
@@ -22171,7 +22171,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C539" s="2" t="n">
@@ -22214,7 +22214,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C540" s="2" t="n">
@@ -22292,7 +22292,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C542" s="2" t="n">
@@ -22335,7 +22335,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C543" s="2" t="n">
@@ -22378,7 +22378,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C544" s="2" t="n">
@@ -22421,7 +22421,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C545" s="2" t="n">
@@ -22460,7 +22460,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C546" s="2" t="n">
@@ -22499,7 +22499,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C547" s="2" t="n">
@@ -22538,7 +22538,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C548" s="2" t="n">
@@ -22581,7 +22581,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C549" s="2" t="n">
@@ -22624,7 +22624,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C550" s="2" t="n">
@@ -22663,7 +22663,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C551" s="2" t="n">
@@ -22702,7 +22702,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C552" s="2" t="n">
@@ -22745,7 +22745,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C553" s="2" t="n">
@@ -22823,7 +22823,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C555" s="2" t="n">
@@ -22866,7 +22866,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C556" s="2" t="n">
@@ -22909,7 +22909,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C557" s="2" t="n">
@@ -22952,7 +22952,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C558" s="2" t="n">
@@ -22991,7 +22991,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C559" s="2" t="n">
@@ -23030,7 +23030,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C560" s="2" t="n">
@@ -23069,7 +23069,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C561" s="2" t="n">
@@ -23112,7 +23112,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C562" s="2" t="n">
@@ -23155,7 +23155,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C563" s="2" t="n">
@@ -23194,7 +23194,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C564" s="2" t="n">
@@ -23233,7 +23233,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C565" s="2" t="n">
@@ -23276,7 +23276,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C566" s="2" t="n">
@@ -23354,7 +23354,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C568" s="2" t="n">
@@ -23397,7 +23397,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C569" s="2" t="n">
@@ -23440,7 +23440,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C570" s="2" t="n">
@@ -23483,7 +23483,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C571" s="2" t="n">
@@ -23522,7 +23522,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C572" s="2" t="n">
@@ -23561,7 +23561,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C573" s="2" t="n">
@@ -23600,7 +23600,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C574" s="2" t="n">
@@ -23643,7 +23643,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C575" s="2" t="n">
@@ -23686,7 +23686,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C576" s="2" t="n">
@@ -23725,7 +23725,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C577" s="2" t="n">
@@ -23764,7 +23764,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C578" s="2" t="n">
@@ -23807,7 +23807,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C579" s="2" t="n">
@@ -23885,7 +23885,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C581" s="2" t="n">
@@ -23928,7 +23928,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C582" s="2" t="n">
@@ -23971,7 +23971,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C583" s="2" t="n">
@@ -24014,7 +24014,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C584" s="2" t="n">
@@ -24053,7 +24053,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C585" s="2" t="n">
@@ -24092,7 +24092,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C586" s="2" t="n">
@@ -24131,7 +24131,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C587" s="2" t="n">
@@ -24174,7 +24174,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C588" s="2" t="n">
@@ -24217,7 +24217,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C589" s="2" t="n">
@@ -24256,7 +24256,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C590" s="2" t="n">
@@ -24299,7 +24299,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C591" s="2" t="n">
@@ -24377,7 +24377,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C593" s="2" t="n">
@@ -24420,7 +24420,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C594" s="2" t="n">
@@ -24463,7 +24463,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C595" s="2" t="n">
@@ -24506,7 +24506,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C596" s="2" t="n">
@@ -24545,7 +24545,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C597" s="2" t="n">
@@ -24584,7 +24584,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C598" s="2" t="n">
@@ -24623,7 +24623,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C599" s="2" t="n">
@@ -24666,7 +24666,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C600" s="2" t="n">
@@ -24709,7 +24709,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C601" s="2" t="n">
@@ -24752,7 +24752,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C602" s="2" t="n">
@@ -24791,7 +24791,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C603" s="2" t="n">
@@ -24834,7 +24834,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C604" s="2" t="n">
@@ -24912,7 +24912,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C606" s="2" t="n">
@@ -24955,7 +24955,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C607" s="2" t="n">
@@ -24998,7 +24998,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C608" s="2" t="n">
@@ -25041,7 +25041,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C609" s="2" t="n">
@@ -25080,7 +25080,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C610" s="2" t="n">
@@ -25119,7 +25119,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C611" s="2" t="n">
@@ -25158,7 +25158,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C612" s="2" t="n">
@@ -25201,7 +25201,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C613" s="2" t="n">
@@ -25244,7 +25244,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C614" s="2" t="n">
@@ -25283,7 +25283,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C615" s="2" t="n">
@@ -25326,7 +25326,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C616" s="2" t="n">
@@ -25404,7 +25404,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C618" s="2" t="n">
@@ -25447,7 +25447,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C619" s="2" t="n">
@@ -25490,7 +25490,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C620" s="2" t="n">
@@ -25533,7 +25533,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C621" s="2" t="n">
@@ -25572,7 +25572,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C622" s="2" t="n">
@@ -25611,7 +25611,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C623" s="2" t="n">
@@ -25650,7 +25650,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C624" s="2" t="n">
@@ -25693,7 +25693,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C625" s="2" t="n">
@@ -25736,7 +25736,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C626" s="2" t="n">
@@ -25775,7 +25775,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C627" s="2" t="n">
@@ -25818,7 +25818,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C628" s="2" t="n">
@@ -25896,7 +25896,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C630" s="2" t="n">
@@ -25939,7 +25939,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C631" s="2" t="n">
@@ -25982,7 +25982,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C632" s="2" t="n">
@@ -26025,7 +26025,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C633" s="2" t="n">
@@ -26064,7 +26064,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C634" s="2" t="n">
@@ -26103,7 +26103,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C635" s="2" t="n">
@@ -26142,7 +26142,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C636" s="2" t="n">
@@ -26185,7 +26185,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C637" s="2" t="n">
@@ -26212,7 +26212,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C638" s="2" t="n">
@@ -26239,7 +26239,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C639" s="2" t="n">
@@ -26266,7 +26266,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C640" s="2" t="n">
@@ -26309,7 +26309,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C641" s="2" t="n">
@@ -26348,7 +26348,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C642" s="2" t="n">
@@ -26391,7 +26391,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C643" s="2" t="n">
@@ -26469,7 +26469,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C645" s="2" t="n">
@@ -26512,7 +26512,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C646" s="2" t="n">
@@ -26555,7 +26555,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C647" s="2" t="n">
@@ -26598,7 +26598,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C648" s="2" t="n">
@@ -26637,7 +26637,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C649" s="2" t="n">
@@ -26676,7 +26676,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C650" s="2" t="n">
@@ -26715,7 +26715,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C651" s="2" t="n">
@@ -26758,7 +26758,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C652" s="2" t="n">
@@ -26801,7 +26801,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C653" s="2" t="n">
@@ -26840,7 +26840,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C654" s="2" t="n">
@@ -26883,7 +26883,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C655" s="2" t="n">
@@ -26961,7 +26961,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C657" s="2" t="n">
@@ -27004,7 +27004,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C658" s="2" t="n">
@@ -27047,7 +27047,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C659" s="2" t="n">
@@ -27090,7 +27090,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C660" s="2" t="n">
@@ -27129,7 +27129,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C661" s="2" t="n">
@@ -27168,7 +27168,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C662" s="2" t="n">
@@ -27207,7 +27207,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C663" s="2" t="n">
@@ -27250,7 +27250,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C664" s="2" t="n">
@@ -27293,7 +27293,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C665" s="2" t="n">
@@ -27332,7 +27332,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C666" s="2" t="n">
@@ -27375,7 +27375,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C667" s="2" t="n">
@@ -27453,7 +27453,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C669" s="2" t="n">
@@ -27496,7 +27496,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C670" s="2" t="n">
@@ -27539,7 +27539,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C671" s="2" t="n">
@@ -27582,7 +27582,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C672" s="2" t="n">
@@ -27621,7 +27621,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C673" s="2" t="n">
@@ -27660,7 +27660,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C674" s="2" t="n">
@@ -27699,7 +27699,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C675" s="2" t="n">
@@ -27742,7 +27742,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C676" s="2" t="n">
@@ -27785,7 +27785,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C677" s="2" t="n">
@@ -27824,7 +27824,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C678" s="2" t="n">
@@ -27863,7 +27863,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C679" s="2" t="n">
@@ -27906,7 +27906,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C680" s="2" t="n">
@@ -27984,7 +27984,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C682" s="2" t="n">
@@ -28027,7 +28027,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C683" s="2" t="n">
@@ -28070,7 +28070,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C684" s="2" t="n">
@@ -28113,7 +28113,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C685" s="2" t="n">
@@ -28152,7 +28152,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C686" s="2" t="n">
@@ -28191,7 +28191,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C687" s="2" t="n">
@@ -28230,7 +28230,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C688" s="2" t="n">
@@ -28273,7 +28273,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C689" s="2" t="n">
@@ -28316,7 +28316,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C690" s="2" t="n">
@@ -28355,7 +28355,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C691" s="2" t="n">
@@ -28394,7 +28394,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C692" s="2" t="n">
@@ -28437,7 +28437,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C693" s="2" t="n">
@@ -28515,7 +28515,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C695" s="2" t="n">
@@ -28558,7 +28558,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C696" s="2" t="n">
@@ -28601,7 +28601,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C697" s="2" t="n">
@@ -28644,7 +28644,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C698" s="2" t="n">
@@ -28683,7 +28683,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C699" s="2" t="n">
@@ -28722,7 +28722,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C700" s="2" t="n">
@@ -28761,7 +28761,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C701" s="2" t="n">
@@ -28804,7 +28804,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C702" s="2" t="n">
@@ -28847,7 +28847,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C703" s="2" t="n">
@@ -28886,7 +28886,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C704" s="2" t="n">
@@ -28925,7 +28925,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C705" s="2" t="n">
@@ -28968,7 +28968,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C706" s="2" t="n">
@@ -29046,7 +29046,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C708" s="2" t="n">
@@ -29089,7 +29089,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C709" s="2" t="n">
@@ -29132,7 +29132,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C710" s="2" t="n">
@@ -29175,7 +29175,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C711" s="2" t="n">
@@ -29214,7 +29214,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C712" s="2" t="n">
@@ -29253,7 +29253,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C713" s="2" t="n">
@@ -29292,7 +29292,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C714" s="2" t="n">
@@ -29335,7 +29335,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C715" s="2" t="n">
@@ -29378,7 +29378,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C716" s="2" t="n">
@@ -29417,7 +29417,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C717" s="2" t="n">
@@ -29456,7 +29456,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C718" s="2" t="n">
@@ -29499,7 +29499,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C719" s="2" t="n">
@@ -29577,7 +29577,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C721" s="2" t="n">
@@ -29620,7 +29620,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C722" s="2" t="n">
@@ -29663,7 +29663,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C723" s="2" t="n">
@@ -29706,7 +29706,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C724" s="2" t="n">
@@ -29745,7 +29745,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C725" s="2" t="n">
@@ -29784,7 +29784,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C726" s="2" t="n">
@@ -29823,7 +29823,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C727" s="2" t="n">
@@ -29866,7 +29866,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C728" s="2" t="n">
@@ -29909,7 +29909,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C729" s="2" t="n">
@@ -29948,7 +29948,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C730" s="2" t="n">
@@ -29987,7 +29987,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C731" s="2" t="n">
@@ -30030,7 +30030,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C732" s="2" t="n">
@@ -30108,7 +30108,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C734" s="2" t="n">
@@ -30151,7 +30151,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C735" s="2" t="n">
@@ -30194,7 +30194,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C736" s="2" t="n">
@@ -30237,7 +30237,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C737" s="2" t="n">
@@ -30276,7 +30276,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C738" s="2" t="n">
@@ -30315,7 +30315,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C739" s="2" t="n">
@@ -30354,7 +30354,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C740" s="2" t="n">
@@ -30397,7 +30397,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C741" s="2" t="n">
@@ -30440,7 +30440,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C742" s="2" t="n">
@@ -30479,7 +30479,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C743" s="2" t="n">
@@ -30518,7 +30518,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C744" s="2" t="n">
@@ -30561,7 +30561,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C745" s="2" t="n">
@@ -30639,7 +30639,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C747" s="2" t="n">
@@ -30682,7 +30682,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C748" s="2" t="n">
@@ -30725,7 +30725,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C749" s="2" t="n">
@@ -30768,7 +30768,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C750" s="2" t="n">
@@ -30807,7 +30807,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C751" s="2" t="n">
@@ -30846,7 +30846,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C752" s="2" t="n">
@@ -30885,7 +30885,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C753" s="2" t="n">
@@ -30928,7 +30928,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C754" s="2" t="n">
@@ -30971,7 +30971,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C755" s="2" t="n">
@@ -31014,7 +31014,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C756" s="2" t="n">
@@ -31053,7 +31053,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C757" s="2" t="n">
@@ -31096,7 +31096,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C758" s="2" t="n">
@@ -31174,7 +31174,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C760" s="2" t="n">
@@ -31217,7 +31217,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C761" s="2" t="n">
@@ -31260,7 +31260,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C762" s="2" t="n">
@@ -31303,7 +31303,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C763" s="2" t="n">
@@ -31342,7 +31342,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C764" s="2" t="n">
@@ -31381,7 +31381,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C765" s="2" t="n">
@@ -31420,7 +31420,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C766" s="2" t="n">
@@ -31463,7 +31463,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C767" s="2" t="n">
@@ -31490,7 +31490,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C768" s="2" t="n">
@@ -31517,7 +31517,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C769" s="2" t="n">
@@ -31544,7 +31544,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C770" s="2" t="n">
@@ -31587,7 +31587,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C771" s="2" t="n">
@@ -31626,7 +31626,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C772" s="2" t="n">
@@ -31669,7 +31669,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C773" s="2" t="n">
@@ -31747,7 +31747,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C775" s="2" t="n">
@@ -31790,7 +31790,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C776" s="2" t="n">
@@ -31833,7 +31833,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C777" s="2" t="n">
@@ -31876,7 +31876,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C778" s="2" t="n">
@@ -31915,7 +31915,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C779" s="2" t="n">
@@ -31954,7 +31954,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C780" s="2" t="n">
@@ -31993,7 +31993,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C781" s="2" t="n">
@@ -32036,7 +32036,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C782" s="2" t="n">
@@ -32079,7 +32079,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C783" s="2" t="n">
@@ -32118,7 +32118,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C784" s="2" t="n">
@@ -32157,7 +32157,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C785" s="2" t="n">
@@ -32200,7 +32200,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C786" s="2" t="n">
@@ -32278,7 +32278,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C788" s="2" t="n">
@@ -32321,7 +32321,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C789" s="2" t="n">
@@ -32364,7 +32364,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C790" s="2" t="n">
@@ -32407,7 +32407,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C791" s="2" t="n">
@@ -32446,7 +32446,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C792" s="2" t="n">
@@ -32485,7 +32485,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C793" s="2" t="n">
@@ -32524,7 +32524,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C794" s="2" t="n">
@@ -32567,7 +32567,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C795" s="2" t="n">
@@ -32610,7 +32610,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C796" s="2" t="n">
@@ -32649,7 +32649,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C797" s="2" t="n">
@@ -32688,7 +32688,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C798" s="2" t="n">
@@ -32731,7 +32731,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C799" s="2" t="n">
@@ -32809,7 +32809,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C801" s="2" t="n">
@@ -32852,7 +32852,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C802" s="2" t="n">
@@ -32895,7 +32895,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C803" s="2" t="n">
@@ -32938,7 +32938,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C804" s="2" t="n">
@@ -32977,7 +32977,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C805" s="2" t="n">
@@ -33016,7 +33016,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C806" s="2" t="n">
@@ -33055,7 +33055,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C807" s="2" t="n">
